--- a/Resultaten.xlsx
+++ b/Resultaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/917004db8d84ef87/Documents/DSPT/bestanden/dsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{2AD44DE0-0A29-45D2-A6A8-46245F21A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE124FE-0781-4833-B286-8759771F1C36}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{2AD44DE0-0A29-45D2-A6A8-46245F21A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8372F7-F51B-4DB8-AEE0-B337917EB214}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46859DE4-DD20-4F09-9586-29A0B1B2847E}"/>
   </bookViews>
@@ -36,25 +36,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Undersampling, vijf</t>
   </si>
   <si>
     <t>Accuracy 0.7875384615384615 RMSE 0.8436185795087183 MEA 0.33392307692307693 Recall 0.44314211857015745 F1 0.4146595695183793</t>
+  </si>
+  <si>
+    <t>Alles, vijf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy 0.7197063369397217 RMSE 1.1676868040616217 MEA 0.5322714522869082 Recall 0.3080459347411958 F1 0.3115073072759943 </t>
+  </si>
+  <si>
+    <t>Undersampling, twee</t>
+  </si>
+  <si>
+    <t>Alles, twee</t>
+  </si>
+  <si>
+    <t>Accuracy 0.8846213292117465 Recall 0.7145894221501582 F1 0.7609143212202321</t>
+  </si>
+  <si>
+    <t>Accuracy 0.8888461538461538 Recall 0.8615103904528021 F1 0.7628318989871199</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Var(--notebook-cell-output-font"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,8 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -100,16 +139,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>324241</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121166</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524266</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>130691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -138,8 +177,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9572625" y="552450"/>
+          <a:off x="1847850" y="1323975"/>
           <a:ext cx="4791466" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606562</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>178316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Afbeelding 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA0E1D2-D12F-23B6-3DD1-7F1CF69797A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="6134100"/>
+          <a:ext cx="4873762" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>501026</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>159266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCB5BC6-1C91-648A-4B88-D62458FE552A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11020425" y="6115050"/>
+          <a:ext cx="5349251" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352054</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Afbeelding 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99001FB-75FF-EF17-9ABC-471614EA6FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="1133475"/>
+          <a:ext cx="5266954" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,26 +637,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A496D70B-ACA4-4CD5-A6AC-6094B3F78578}">
-  <dimension ref="D5:D6"/>
+  <dimension ref="D5:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" t="s">
         <v>0</v>
       </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" t="s">
         <v>1</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultaten.xlsx
+++ b/Resultaten.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/917004db8d84ef87/Documents/DSPT/bestanden/dsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{2AD44DE0-0A29-45D2-A6A8-46245F21A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8372F7-F51B-4DB8-AEE0-B337917EB214}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{2AD44DE0-0A29-45D2-A6A8-46245F21A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1224B9F-EF68-4F5C-B3F7-F8B9F9F35909}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46859DE4-DD20-4F09-9586-29A0B1B2847E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Multinomial" sheetId="1" r:id="rId1"/>
+    <sheet name="Logistic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Undersampling, vijf</t>
   </si>
@@ -56,10 +57,22 @@
     <t>Alles, twee</t>
   </si>
   <si>
-    <t>Accuracy 0.8846213292117465 Recall 0.7145894221501582 F1 0.7609143212202321</t>
-  </si>
-  <si>
     <t>Accuracy 0.8888461538461538 Recall 0.8615103904528021 F1 0.7628318989871199</t>
+  </si>
+  <si>
+    <t>Accuracy 0.8983846153846153 Recall 0.8738999668078238 F1 0.7787167037770081</t>
+  </si>
+  <si>
+    <t>Accuracy 0.8892570940277821 Recall 0.7324869549017676 F1 0.7776131317641458</t>
+  </si>
+  <si>
+    <t>Accuracy 0.8912692307692308 Recall 0.8645944174570128 F1 0.7624311323157266</t>
+  </si>
+  <si>
+    <t>Accuracy 0.794923076923077 RMSE 0.82869220415711 MEA 0.3218846153846154 Recall 0.4434096300946176 F1 0.4158368050394558</t>
+  </si>
+  <si>
+    <t>Accuracy 0.7312059887077333 RMSE 1.0976377951322547 MEA 0.4891835310537334 Recall 0.331854005380709 F1 0.33910032581909244</t>
   </si>
 </sst>
 </file>
@@ -139,23 +152,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>524266</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>130691</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>390154</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Afbeelding 2">
+        <xdr:cNvPr id="5" name="Afbeelding 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719626A0-6301-8ADF-40DD-4E9F5C431971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989E217D-51B9-675A-A9E4-28FE4C898031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -177,8 +190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="1323975"/>
-          <a:ext cx="4791466" cy="3950216"/>
+          <a:off x="10991850" y="6105525"/>
+          <a:ext cx="5266954" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -189,23 +202,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>606562</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>178316</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>409204</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Afbeelding 3">
+        <xdr:cNvPr id="9" name="Afbeelding 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA0E1D2-D12F-23B6-3DD1-7F1CF69797A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52CBC2A-AE70-8C62-7942-375805D669A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -227,8 +240,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="6134100"/>
-          <a:ext cx="4873762" cy="3950216"/>
+          <a:off x="11010900" y="1152525"/>
+          <a:ext cx="5266954" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -239,23 +252,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>501026</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514741</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>159266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Afbeelding 5">
+        <xdr:cNvPr id="11" name="Afbeelding 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCB5BC6-1C91-648A-4B88-D62458FE552A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23CEEC5-CBC6-2ECE-CF47-A6BF762E7E78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,8 +290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11020425" y="6115050"/>
-          <a:ext cx="5349251" cy="3950216"/>
+          <a:off x="1838325" y="1162050"/>
+          <a:ext cx="4791466" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -289,23 +302,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>352054</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130691</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438541</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>64016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Afbeelding 7">
+        <xdr:cNvPr id="13" name="Afbeelding 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99001FB-75FF-EF17-9ABC-471614EA6FD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13224861-AAD8-3E5F-DF78-BAE283EEC4F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -314,7 +327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -327,8 +340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953750" y="1133475"/>
-          <a:ext cx="5266954" cy="3950216"/>
+          <a:off x="1762125" y="6210300"/>
+          <a:ext cx="4791466" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A496D70B-ACA4-4CD5-A6AC-6094B3F78578}">
   <dimension ref="D5:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,11 +670,11 @@
       </c>
     </row>
     <row r="6" spans="4:18">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>7</v>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="4:18">
@@ -673,11 +686,11 @@
       </c>
     </row>
     <row r="32" spans="4:18">
-      <c r="D32" s="2" t="s">
-        <v>3</v>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="4:4">
@@ -688,4 +701,52 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97AF2C-8D3A-496F-AF76-D66FCD18897B}">
+  <dimension ref="H5:V32"/>
+  <sheetViews>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="8:22">
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="8:22">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="8:22">
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="8:22">
+      <c r="H32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resultaten.xlsx
+++ b/Resultaten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/917004db8d84ef87/Documents/DSPT/bestanden/dsp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qcoret\Documents\dsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{2AD44DE0-0A29-45D2-A6A8-46245F21A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1224B9F-EF68-4F5C-B3F7-F8B9F9F35909}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86C683-BEB4-4B27-9286-A13022CA4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46859DE4-DD20-4F09-9586-29A0B1B2847E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{46859DE4-DD20-4F09-9586-29A0B1B2847E}"/>
   </bookViews>
   <sheets>
     <sheet name="Multinomial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Undersampling, vijf</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Accuracy 0.7312059887077333 RMSE 1.0976377951322547 MEA 0.4891835310537334 Recall 0.331854005380709 F1 0.33910032581909244</t>
+  </si>
+  <si>
+    <t>Alles, vijf, maar met duizend features</t>
+  </si>
+  <si>
+    <t>Accuracy 0.7440208082217852 RMSE 1.0027937881687337 MEA 0.43506946647211825 Recall 0.39558428203709417 F1 0.40543828284623534</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,12 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,10 +142,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,8 +365,57 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDC36E8-1231-19F4-53D5-2B0A6FCE4AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="8412480"/>
+          <a:ext cx="4991100" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,13 +713,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A496D70B-ACA4-4CD5-A6AC-6094B3F78578}">
   <dimension ref="D5:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:18">
@@ -705,13 +766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97AF2C-8D3A-496F-AF76-D66FCD18897B}">
-  <dimension ref="H5:V32"/>
+  <dimension ref="H5:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="8:22">
       <c r="H5" t="s">
@@ -725,7 +786,7 @@
       <c r="H6" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -745,8 +806,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="45" spans="8:8">
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>